--- a/database/industries/ravankar/sheranol/balancesheet/yearly.xlsx
+++ b/database/industries/ravankar/sheranol/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597575CC-BB5B-448D-8B48-557F79DE626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF15BD5-EEB4-48B1-BEB8-21BC25747ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>1401-04-08 (10)</t>
   </si>
   <si>
-    <t>1401-10-27 (6)</t>
+    <t>1402-01-28 (8)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1070087</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>13239713</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>21009985</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1655097</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>36974882</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>93977</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>533364</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>2612226</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>202645</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>3442212</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>40417094</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>5775261</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2237213</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2015232</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>86586</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>11420598</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>382210</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>21917100</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>698889</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>698889</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>22615989</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>15601105</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>17801105</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>40417094</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
